--- a/Outputs/1. Budget/Grid Search/Output Files/250000/Output_19_22.xlsx
+++ b/Outputs/1. Budget/Grid Search/Output Files/250000/Output_19_22.xlsx
@@ -501,7 +501,7 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>401492.0649570717</v>
+        <v>394547.9520504743</v>
       </c>
     </row>
     <row r="7">
@@ -8924,13 +8924,13 @@
         <v>0</v>
       </c>
       <c r="J14" t="n">
-        <v>71.92258334679381</v>
+        <v>71.92258334679383</v>
       </c>
       <c r="K14" t="n">
-        <v>56.54227989916993</v>
+        <v>56.54227989916996</v>
       </c>
       <c r="L14" t="n">
-        <v>32.87119109810837</v>
+        <v>32.8711910981084</v>
       </c>
       <c r="M14" t="n">
         <v>4.586202945486093</v>
@@ -8939,13 +8939,13 @@
         <v>0</v>
       </c>
       <c r="O14" t="n">
-        <v>13.46996085601</v>
+        <v>13.46996085601003</v>
       </c>
       <c r="P14" t="n">
-        <v>46.34579576917244</v>
+        <v>46.34579576917247</v>
       </c>
       <c r="Q14" t="n">
-        <v>83.46310250126155</v>
+        <v>83.46310250126157</v>
       </c>
       <c r="R14" t="n">
         <v>65.71641987298243</v>
@@ -9006,7 +9006,7 @@
         <v>61.84452414151257</v>
       </c>
       <c r="K15" t="n">
-        <v>26.7578748098077</v>
+        <v>26.75787480980772</v>
       </c>
       <c r="L15" t="n">
         <v>0</v>
@@ -9021,10 +9021,10 @@
         <v>0</v>
       </c>
       <c r="P15" t="n">
-        <v>2.612367688219081</v>
+        <v>2.612367688219109</v>
       </c>
       <c r="Q15" t="n">
-        <v>52.1697293391627</v>
+        <v>52.16972933916271</v>
       </c>
       <c r="R15" t="n">
         <v>45.52166981132082</v>
@@ -9085,16 +9085,16 @@
         <v>33.63624132272333</v>
       </c>
       <c r="K16" t="n">
-        <v>62.00809140979794</v>
+        <v>62.00809140979796</v>
       </c>
       <c r="L16" t="n">
-        <v>49.14113189899255</v>
+        <v>49.14113189899257</v>
       </c>
       <c r="M16" t="n">
-        <v>48.52123852856</v>
+        <v>48.52123852856002</v>
       </c>
       <c r="N16" t="n">
-        <v>39.43061707215853</v>
+        <v>39.43061707215854</v>
       </c>
       <c r="O16" t="n">
         <v>56.93882853040725</v>
@@ -9872,13 +9872,13 @@
         <v>0</v>
       </c>
       <c r="J26" t="n">
-        <v>71.92258334679383</v>
+        <v>71.92258334679381</v>
       </c>
       <c r="K26" t="n">
-        <v>56.54227989916996</v>
+        <v>56.54227989916993</v>
       </c>
       <c r="L26" t="n">
-        <v>32.8711910981084</v>
+        <v>32.87119109810837</v>
       </c>
       <c r="M26" t="n">
         <v>4.586202945486093</v>
@@ -9887,13 +9887,13 @@
         <v>0</v>
       </c>
       <c r="O26" t="n">
-        <v>13.46996085601003</v>
+        <v>13.46996085601</v>
       </c>
       <c r="P26" t="n">
-        <v>46.34579576917247</v>
+        <v>46.34579576917244</v>
       </c>
       <c r="Q26" t="n">
-        <v>83.46310250126157</v>
+        <v>83.46310250126155</v>
       </c>
       <c r="R26" t="n">
         <v>65.71641987298243</v>
@@ -9954,7 +9954,7 @@
         <v>61.84452414151257</v>
       </c>
       <c r="K27" t="n">
-        <v>26.75787480980772</v>
+        <v>26.7578748098077</v>
       </c>
       <c r="L27" t="n">
         <v>0</v>
@@ -9969,10 +9969,10 @@
         <v>0</v>
       </c>
       <c r="P27" t="n">
-        <v>2.612367688219109</v>
+        <v>2.612367688219081</v>
       </c>
       <c r="Q27" t="n">
-        <v>52.16972933916271</v>
+        <v>52.1697293391627</v>
       </c>
       <c r="R27" t="n">
         <v>45.52166981132082</v>
@@ -10033,16 +10033,16 @@
         <v>33.63624132272333</v>
       </c>
       <c r="K28" t="n">
-        <v>62.00809140979796</v>
+        <v>62.00809140979794</v>
       </c>
       <c r="L28" t="n">
-        <v>49.14113189899257</v>
+        <v>49.14113189899255</v>
       </c>
       <c r="M28" t="n">
-        <v>48.52123852856002</v>
+        <v>48.52123852856</v>
       </c>
       <c r="N28" t="n">
-        <v>39.43061707215854</v>
+        <v>39.43061707215853</v>
       </c>
       <c r="O28" t="n">
         <v>56.93882853040725</v>
@@ -23695,7 +23695,7 @@
         <v>0</v>
       </c>
       <c r="Q16" t="n">
-        <v>37.86903925848995</v>
+        <v>37.86903925848996</v>
       </c>
       <c r="R16" t="n">
         <v>151.3616578248528</v>
@@ -24643,7 +24643,7 @@
         <v>0</v>
       </c>
       <c r="Q28" t="n">
-        <v>37.86903925848996</v>
+        <v>37.86903925848995</v>
       </c>
       <c r="R28" t="n">
         <v>151.3616578248528</v>
@@ -26363,7 +26363,7 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>11372.62968807397</v>
+        <v>11372.629688074</v>
       </c>
       <c r="C3" t="n">
         <v>203044.1822108271</v>
@@ -26415,49 +26415,49 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>97186.16428340334</v>
+        <v>99506.03109454513</v>
       </c>
       <c r="C4" t="n">
-        <v>41700.49024610802</v>
+        <v>42695.89513777744</v>
       </c>
       <c r="D4" t="n">
-        <v>35431.87122791319</v>
+        <v>36277.64205058495</v>
       </c>
       <c r="E4" t="n">
-        <v>22469.90915247436</v>
+        <v>23006.2735298171</v>
       </c>
       <c r="F4" t="n">
-        <v>22469.90915247436</v>
+        <v>23006.2735298171</v>
       </c>
       <c r="G4" t="n">
-        <v>22469.90915247436</v>
+        <v>23006.2735298171</v>
       </c>
       <c r="H4" t="n">
-        <v>22469.90915247436</v>
+        <v>23006.2735298171</v>
       </c>
       <c r="I4" t="n">
-        <v>22469.90915247436</v>
+        <v>23006.2735298171</v>
       </c>
       <c r="J4" t="n">
-        <v>22469.90915247436</v>
+        <v>23006.2735298171</v>
       </c>
       <c r="K4" t="n">
-        <v>22469.90915247436</v>
+        <v>23006.2735298171</v>
       </c>
       <c r="L4" t="n">
-        <v>22469.90915247436</v>
+        <v>23006.2735298171</v>
       </c>
       <c r="M4" t="n">
-        <v>22469.90915247436</v>
+        <v>23006.2735298171</v>
       </c>
       <c r="N4" t="n">
-        <v>22469.90915247436</v>
+        <v>23006.2735298171</v>
       </c>
       <c r="O4" t="n">
-        <v>22469.90915247436</v>
+        <v>23006.2735298171</v>
       </c>
       <c r="P4" t="n">
-        <v>22469.90915247436</v>
+        <v>23006.2735298171</v>
       </c>
     </row>
     <row r="5">
@@ -26479,7 +26479,7 @@
         <v>6972.10256325733</v>
       </c>
       <c r="F5" t="n">
-        <v>6972.10256325733</v>
+        <v>6972.102563257328</v>
       </c>
       <c r="G5" t="n">
         <v>6972.10256325733</v>
@@ -26491,7 +26491,7 @@
         <v>6972.10256325733</v>
       </c>
       <c r="J5" t="n">
-        <v>6972.102563257328</v>
+        <v>6972.10256325733</v>
       </c>
       <c r="K5" t="n">
         <v>6972.10256325733</v>
@@ -26519,49 +26519,49 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>-23260.17434955794</v>
+        <v>-25580.04116069975</v>
       </c>
       <c r="C6" t="n">
-        <v>-155157.1052510785</v>
+        <v>-156152.5101427479</v>
       </c>
       <c r="D6" t="n">
-        <v>32279.29931539605</v>
+        <v>31433.52849272429</v>
       </c>
       <c r="E6" t="n">
-        <v>54646.33500710166</v>
+        <v>54109.97062975893</v>
       </c>
       <c r="F6" t="n">
-        <v>102067.0572743758</v>
+        <v>101530.6928970331</v>
       </c>
       <c r="G6" t="n">
-        <v>102067.0572743758</v>
+        <v>101530.6928970331</v>
       </c>
       <c r="H6" t="n">
-        <v>102067.0572743758</v>
+        <v>101530.6928970331</v>
       </c>
       <c r="I6" t="n">
-        <v>102067.0572743758</v>
+        <v>101530.6928970331</v>
       </c>
       <c r="J6" t="n">
-        <v>102067.0572743758</v>
+        <v>101530.6928970331</v>
       </c>
       <c r="K6" t="n">
-        <v>102067.0572743758</v>
+        <v>101530.6928970331</v>
       </c>
       <c r="L6" t="n">
-        <v>102067.0572743758</v>
+        <v>101530.6928970331</v>
       </c>
       <c r="M6" t="n">
-        <v>102067.0572743758</v>
+        <v>101530.6928970331</v>
       </c>
       <c r="N6" t="n">
-        <v>102067.0572743758</v>
+        <v>101530.6928970331</v>
       </c>
       <c r="O6" t="n">
-        <v>102067.0572743758</v>
+        <v>101530.6928970331</v>
       </c>
       <c r="P6" t="n">
-        <v>102067.0572743759</v>
+        <v>101530.6928970331</v>
       </c>
     </row>
   </sheetData>
@@ -31993,7 +31993,7 @@
         <v>13.16731277967066</v>
       </c>
       <c r="I14" t="n">
-        <v>49.56746744179213</v>
+        <v>49.56746744179212</v>
       </c>
       <c r="J14" t="n">
         <v>109.1233211798925</v>
@@ -32002,7 +32002,7 @@
         <v>163.5475711458106</v>
       </c>
       <c r="L14" t="n">
-        <v>202.8952238718789</v>
+        <v>202.8952238718788</v>
       </c>
       <c r="M14" t="n">
         <v>225.7600302817866</v>
@@ -32066,10 +32066,10 @@
         <v>0</v>
       </c>
       <c r="G15" t="n">
-        <v>0.6879173379014503</v>
+        <v>0.6879173379014502</v>
       </c>
       <c r="H15" t="n">
-        <v>6.643833237100849</v>
+        <v>6.643833237100848</v>
       </c>
       <c r="I15" t="n">
         <v>23.68487325669467</v>
@@ -32093,13 +32093,13 @@
         <v>142.5962444444444</v>
       </c>
       <c r="P15" t="n">
-        <v>131.3620397261112</v>
+        <v>131.3620397261111</v>
       </c>
       <c r="Q15" t="n">
-        <v>87.81204474685882</v>
+        <v>87.8120447468588</v>
       </c>
       <c r="R15" t="n">
-        <v>42.71121857602164</v>
+        <v>42.71121857602163</v>
       </c>
       <c r="S15" t="n">
         <v>12.77776283338877</v>
@@ -32108,7 +32108,7 @@
         <v>2.772789620751897</v>
       </c>
       <c r="U15" t="n">
-        <v>0.04525771959877964</v>
+        <v>0.04525771959877963</v>
       </c>
       <c r="V15" t="n">
         <v>0</v>
@@ -32145,7 +32145,7 @@
         <v>0</v>
       </c>
       <c r="G16" t="n">
-        <v>0.5767267874554867</v>
+        <v>0.5767267874554866</v>
       </c>
       <c r="H16" t="n">
         <v>5.127625437558785</v>
@@ -32157,16 +32157,16 @@
         <v>40.77458387310291</v>
       </c>
       <c r="K16" t="n">
-        <v>67.00516676073744</v>
+        <v>67.00516676073742</v>
       </c>
       <c r="L16" t="n">
-        <v>85.74354438224573</v>
+        <v>85.74354438224572</v>
       </c>
       <c r="M16" t="n">
-        <v>90.40454541904505</v>
+        <v>90.40454541904504</v>
       </c>
       <c r="N16" t="n">
-        <v>88.25492739307467</v>
+        <v>88.25492739307465</v>
       </c>
       <c r="O16" t="n">
         <v>81.51770992143554</v>
@@ -32175,7 +32175,7 @@
         <v>69.75248345734356</v>
       </c>
       <c r="Q16" t="n">
-        <v>48.29300399320444</v>
+        <v>48.29300399320443</v>
       </c>
       <c r="R16" t="n">
         <v>25.93173355231669</v>
@@ -32941,7 +32941,7 @@
         <v>13.16731277967066</v>
       </c>
       <c r="I26" t="n">
-        <v>49.56746744179212</v>
+        <v>49.56746744179213</v>
       </c>
       <c r="J26" t="n">
         <v>109.1233211798925</v>
@@ -32950,7 +32950,7 @@
         <v>163.5475711458106</v>
       </c>
       <c r="L26" t="n">
-        <v>202.8952238718788</v>
+        <v>202.8952238718789</v>
       </c>
       <c r="M26" t="n">
         <v>225.7600302817866</v>
@@ -33014,10 +33014,10 @@
         <v>0</v>
       </c>
       <c r="G27" t="n">
-        <v>0.6879173379014502</v>
+        <v>0.6879173379014503</v>
       </c>
       <c r="H27" t="n">
-        <v>6.643833237100848</v>
+        <v>6.643833237100849</v>
       </c>
       <c r="I27" t="n">
         <v>23.68487325669467</v>
@@ -33041,13 +33041,13 @@
         <v>142.5962444444444</v>
       </c>
       <c r="P27" t="n">
-        <v>131.3620397261111</v>
+        <v>131.3620397261112</v>
       </c>
       <c r="Q27" t="n">
-        <v>87.8120447468588</v>
+        <v>87.81204474685882</v>
       </c>
       <c r="R27" t="n">
-        <v>42.71121857602163</v>
+        <v>42.71121857602164</v>
       </c>
       <c r="S27" t="n">
         <v>12.77776283338877</v>
@@ -33056,7 +33056,7 @@
         <v>2.772789620751897</v>
       </c>
       <c r="U27" t="n">
-        <v>0.04525771959877963</v>
+        <v>0.04525771959877964</v>
       </c>
       <c r="V27" t="n">
         <v>0</v>
@@ -33093,7 +33093,7 @@
         <v>0</v>
       </c>
       <c r="G28" t="n">
-        <v>0.5767267874554866</v>
+        <v>0.5767267874554867</v>
       </c>
       <c r="H28" t="n">
         <v>5.127625437558785</v>
@@ -33105,16 +33105,16 @@
         <v>40.77458387310291</v>
       </c>
       <c r="K28" t="n">
-        <v>67.00516676073742</v>
+        <v>67.00516676073744</v>
       </c>
       <c r="L28" t="n">
-        <v>85.74354438224572</v>
+        <v>85.74354438224573</v>
       </c>
       <c r="M28" t="n">
-        <v>90.40454541904504</v>
+        <v>90.40454541904505</v>
       </c>
       <c r="N28" t="n">
-        <v>88.25492739307465</v>
+        <v>88.25492739307467</v>
       </c>
       <c r="O28" t="n">
         <v>81.51770992143554</v>
@@ -33123,7 +33123,7 @@
         <v>69.75248345734356</v>
       </c>
       <c r="Q28" t="n">
-        <v>48.29300399320443</v>
+        <v>48.29300399320444</v>
       </c>
       <c r="R28" t="n">
         <v>25.93173355231669</v>
